--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -842,43 +842,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.5078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="154.70703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="132.6328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.03515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.7734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="35.8125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="20.5078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="83.55859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="58.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="71.63671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="166">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -264,7 +264,7 @@
   </si>
   <si>
     <t>att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}
-ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}must-be-drs-uri:attachment.url must start with ^drs://. A drs:// hostname-based URI, as defined in the DRS documentation, that tells clients how to access this object. The intent of this field is to make DRS objects self-contained, and therefore easier for clients to store and pass around.  For example, if you arrive at this DRS JSON by resolving a compact identifier-based DRS URI, the `self_uri` presents you with a hostname and properly encoded DRS ID for use in subsequent `access` endpoint calls. {$this.url.matches('^drs://.*')}</t>
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}must-be-drs-uri:attachment.url must start with ^drs://. A drs:// hostname-based URI, as defined in the DRS documentation, that tells clients how to access this object. The intent of this field is to make DRS objects self-contained, and therefore easier for clients to store and pass around.  For example, if you arrive at this DRS JSON by resolving a compact identifier-based DRS URI, the `self_uri` presents you with a hostname and properly encoded DRS ID for use in subsequent `access` endpoint calls. {$this.url.matches('^drs://.*')}</t>
   </si>
   <si>
     <t>ED/RP</t>
@@ -279,7 +279,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -357,10 +357,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>BCP 13 (RFCs 2045, 2046, 2047, 4288, 4289 and 2049)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.3.0</t>
+    <t>The mime type of an attachment. Any valid mime type is allowed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -391,7 +391,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -484,7 +484,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4B/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
@@ -494,10 +494,6 @@
   </si>
   <si>
     <t>Attachment.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Label to display in place of the data</t>
@@ -866,7 +862,7 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.94140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="35.8125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -2003,17 +1999,17 @@
         <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2026,7 +2022,7 @@
         <v>20</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U11" t="s" s="2">
         <v>20</v>
@@ -2080,15 +2076,15 @@
         <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2111,17 +2107,17 @@
         <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -2170,7 +2166,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-drs-attachment.xlsx
+++ b/StructureDefinition-ncpi-drs-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
